--- a/output/average_output_randomtree_pofb_30_log.xlsx
+++ b/output/average_output_randomtree_pofb_30_log.xlsx
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3003333333333334</v>
+        <v>0.5750923165271081</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2141414141414141</v>
+        <v>0.5706946814317536</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1636904761904762</v>
+        <v>0.496453608327531</v>
       </c>
     </row>
     <row r="4">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09393939393939389</v>
+        <v>0.3983419893050367</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3242703533026114</v>
+        <v>0.6764078831407254</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05252525252525251</v>
+        <v>0.5189697903804268</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2956492637215529</v>
+        <v>0.4931566358667606</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1818181818181817</v>
+        <v>0.5032578019169203</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3760683760683762</v>
+        <v>0.5921281766231503</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09696969696969691</v>
+        <v>0.5094927210923782</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4469841269841271</v>
+        <v>0.6939051276076716</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2212121212121211</v>
+        <v>0.5609741250788729</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2673076923076922</v>
+        <v>0.5621555212233406</v>
       </c>
     </row>
     <row r="14">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.4824940790010089</v>
       </c>
     </row>
     <row r="15">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3927536231884059</v>
+        <v>0.4627872825059834</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.107070707070707</v>
+        <v>0.3755333155858899</v>
       </c>
     </row>
     <row r="17">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2309523809523809</v>
+        <v>0.5455493093218476</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2554</v>
+        <v>0.5427982174607273</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3529953917050692</v>
+        <v>0.7426577376683354</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2455333333333333</v>
+        <v>0.5435512506239945</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.390896921017403</v>
+        <v>0.7034666813482437</v>
       </c>
     </row>
     <row r="22">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3800666666666666</v>
+        <v>0.6266992938979137</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2923076923076923</v>
+        <v>0.6240083885674893</v>
       </c>
     </row>
     <row r="24">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3499999999999999</v>
+        <v>0.633791656904067</v>
       </c>
     </row>
     <row r="25">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4685714285714286</v>
+        <v>0.7362664064503388</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3578666666666666</v>
+        <v>0.6403958799773947</v>
       </c>
     </row>
     <row r="27">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2250000000000001</v>
+        <v>0.5308593107195013</v>
       </c>
     </row>
     <row r="28">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2770666666666666</v>
+        <v>0.5530270785033196</v>
       </c>
     </row>
     <row r="29">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5298550724637681</v>
+        <v>0.702294936279835</v>
       </c>
     </row>
     <row r="30">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1692666666666667</v>
+        <v>0.5229035434034851</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3357910906298003</v>
+        <v>0.7062106718007145</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2267857142857142</v>
+        <v>0.5594969723813198</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2849397590361446</v>
+        <v>0.4949494295400352</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2065476190476191</v>
+        <v>0.5147647383355675</v>
       </c>
     </row>
     <row r="35">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3247863247863248</v>
+        <v>0.5566766695859335</v>
       </c>
     </row>
     <row r="36">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2357142857142857</v>
+        <v>0.5300866713492299</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4225396825396827</v>
+        <v>0.6258137093413186</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1803571428571429</v>
+        <v>0.5561254927080719</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2044871794871796</v>
+        <v>0.530054541191265</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1696428571428572</v>
+        <v>0.491796543619297</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6571014492753623</v>
+        <v>0.7881754611611116</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2535714285714286</v>
+        <v>0.5748343703556552</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3025435073627845</v>
+        <v>0.5158993294571249</v>
       </c>
     </row>
     <row r="44">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3155145929339477</v>
+        <v>0.6788479492407283</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.294017094017094</v>
+        <v>0.6167385015321802</v>
       </c>
     </row>
     <row r="46">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3144393241167435</v>
+        <v>0.692695374442584</v>
       </c>
     </row>
     <row r="47">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3685714285714286</v>
+        <v>0.6291484414910257</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.265284178187404</v>
+        <v>0.6433083107705289</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1963675213675214</v>
+        <v>0.5327651890982413</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.303225806451613</v>
+        <v>0.7295874073714175</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6979710144927533</v>
+        <v>0.8318079536194342</v>
       </c>
     </row>
     <row r="52">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2533026113671275</v>
+        <v>0.6792714079958734</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4504273504273505</v>
+        <v>0.6533018695496042</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3208165997322625</v>
+        <v>0.6096987893302613</v>
       </c>
     </row>
     <row r="55">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.6944444444444442</v>
+        <v>0.9272578696381861</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5309906291834003</v>
+        <v>0.9085822719827527</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2534188034188034</v>
+        <v>0.6077698288041794</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3139223560910308</v>
+        <v>0.5842841810250826</v>
       </c>
     </row>
     <row r="59">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.7237681159420292</v>
+        <v>0.8585372258614858</v>
       </c>
     </row>
     <row r="60">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.384136546184739</v>
+        <v>0.6552263306211206</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.4911111111111112</v>
+        <v>0.7651680571784676</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.6798628200327477</v>
       </c>
     </row>
     <row r="63">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2777777777777777</v>
+        <v>0.5817561394727983</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3042735042735042</v>
+        <v>0.5554519186631297</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.5226086956521739</v>
+        <v>0.6458718226522496</v>
       </c>
     </row>
     <row r="66">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2170940170940172</v>
+        <v>0.4890366919447979</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2478632478632479</v>
+        <v>0.5831722766006758</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.3565079365079366</v>
+        <v>0.6203492701433155</v>
       </c>
     </row>
     <row r="69">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.7130434782608697</v>
+        <v>0.8564498059106724</v>
       </c>
     </row>
     <row r="70">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.4568253968253969</v>
+        <v>0.7490016857801437</v>
       </c>
     </row>
     <row r="71">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5895652173913045</v>
+        <v>0.7136688981449379</v>
       </c>
     </row>
     <row r="72">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2258547008547009</v>
+        <v>0.5384225304236394</v>
       </c>
     </row>
   </sheetData>
